--- a/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_GroupStats.xlsx
+++ b/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1568" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4032" uniqueCount="20">
   <si>
     <t>Sex</t>
   </si>

--- a/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_GroupStats.xlsx
+++ b/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4032" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="448" uniqueCount="20">
   <si>
     <t>Sex</t>
   </si>

--- a/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_GroupStats.xlsx
+++ b/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="448" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1792" uniqueCount="20">
   <si>
     <t>Sex</t>
   </si>
@@ -139,7 +139,7 @@
     <col min="13" max="13" width="13.85546875" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
-    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -236,10 +236,10 @@
         <v>31.272164618341826</v>
       </c>
       <c r="O2" s="0">
-        <v>32.170459999999999</v>
+        <v>1434.2544143502885</v>
       </c>
       <c r="P2" s="0">
-        <v>7.5037952173135549</v>
+        <v>407.27849891053671</v>
       </c>
     </row>
     <row r="3">
@@ -286,10 +286,10 @@
         <v>23.350727543691011</v>
       </c>
       <c r="O3" s="0">
-        <v>25.817470000000004</v>
+        <v>1082.0945214997121</v>
       </c>
       <c r="P3" s="0">
-        <v>7.3109908661784297</v>
+        <v>263.78677607768248</v>
       </c>
     </row>
     <row r="4">
@@ -336,10 +336,10 @@
         <v>17.458045522383628</v>
       </c>
       <c r="O4" s="0">
-        <v>23.789920000000002</v>
+        <v>938.81770506466887</v>
       </c>
       <c r="P4" s="0">
-        <v>7.8873622207483844</v>
+        <v>274.01021130109228</v>
       </c>
     </row>
     <row r="5">
@@ -386,10 +386,10 @@
         <v>28.424360152184821</v>
       </c>
       <c r="O5" s="0">
-        <v>25.489200000000007</v>
+        <v>994.12548142685989</v>
       </c>
       <c r="P5" s="0">
-        <v>6.532186084561074</v>
+        <v>218.99220068394027</v>
       </c>
     </row>
     <row r="6">
@@ -436,10 +436,10 @@
         <v>46.300614809400564</v>
       </c>
       <c r="O6" s="0">
-        <v>23.925090000000001</v>
+        <v>978.83825359412697</v>
       </c>
       <c r="P6" s="0">
-        <v>2.799683642503203</v>
+        <v>100.33755111210807</v>
       </c>
     </row>
     <row r="7">
@@ -486,10 +486,10 @@
         <v>10.014133239290222</v>
       </c>
       <c r="O7" s="0">
-        <v>27.304340000000003</v>
+        <v>1082.2797891025903</v>
       </c>
       <c r="P7" s="0">
-        <v>4.6988724736945615</v>
+        <v>163.53992172771223</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>13.291454536778403</v>
       </c>
       <c r="O8" s="0">
-        <v>26.628489999999999</v>
+        <v>1080.6866296899257</v>
       </c>
       <c r="P8" s="0">
-        <v>5.3881820702440999</v>
+        <v>216.60701676184294</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>20.611440814121249</v>
       </c>
       <c r="O9" s="0">
-        <v>33.386990000000004</v>
+        <v>1324.8638894545493</v>
       </c>
       <c r="P9" s="0">
-        <v>8.0095749933640175</v>
+        <v>320.47656209320991</v>
       </c>
     </row>
     <row r="10">
@@ -636,10 +636,10 @@
         <v>15.428399616157582</v>
       </c>
       <c r="O10" s="0">
-        <v>39.334470000000003</v>
+        <v>1582.4350881425946</v>
       </c>
       <c r="P10" s="0">
-        <v>13.282855113809514</v>
+        <v>579.64834031905082</v>
       </c>
     </row>
     <row r="11">
@@ -686,10 +686,10 @@
         <v>10.383052094806807</v>
       </c>
       <c r="O11" s="0">
-        <v>41.632360000000006</v>
+        <v>1698.6328075881597</v>
       </c>
       <c r="P11" s="0">
-        <v>13.063014794187275</v>
+        <v>565.99394444528457</v>
       </c>
     </row>
     <row r="12">
@@ -736,10 +736,10 @@
         <v>6.535136386216533</v>
       </c>
       <c r="O12" s="0">
-        <v>45.552290000000006</v>
+        <v>1670.8375799678433</v>
       </c>
       <c r="P12" s="0">
-        <v>12.270064557255237</v>
+        <v>466.89452912649813</v>
       </c>
     </row>
     <row r="13">
@@ -786,10 +786,10 @@
         <v>20.171831534736167</v>
       </c>
       <c r="O13" s="0">
-        <v>45.764700000000005</v>
+        <v>1652.8115786520668</v>
       </c>
       <c r="P13" s="0">
-        <v>12.312554286445469</v>
+        <v>438.26982011107418</v>
       </c>
     </row>
     <row r="14">
@@ -836,10 +836,10 @@
         <v>20.023444857860035</v>
       </c>
       <c r="O14" s="0">
-        <v>40.01032</v>
+        <v>1463.6818290485039</v>
       </c>
       <c r="P14" s="0">
-        <v>8.4153502848306925</v>
+        <v>298.03643026301012</v>
       </c>
     </row>
     <row r="15">
@@ -886,10 +886,10 @@
         <v>10.075282463684486</v>
       </c>
       <c r="O15" s="0">
-        <v>38.928960000000004</v>
+        <v>1457.1653528181744</v>
       </c>
       <c r="P15" s="0">
-        <v>8.6780590410170522</v>
+        <v>331.75399626602655</v>
       </c>
     </row>
     <row r="16">
@@ -936,10 +936,10 @@
         <v>24.827299337427494</v>
       </c>
       <c r="O16" s="0">
-        <v>32.981480000000005</v>
+        <v>1220.0223486657064</v>
       </c>
       <c r="P16" s="0">
-        <v>6.6348140915728244</v>
+        <v>248.42509807874515</v>
       </c>
     </row>
     <row r="17">
@@ -1536,10 +1536,10 @@
         <v>37.277045252779587</v>
       </c>
       <c r="O28" s="0">
-        <v>1.3517000000000001</v>
+        <v>78.953200851602801</v>
       </c>
       <c r="P28" s="0">
-        <v>0.45056666666666667</v>
+        <v>25.361198454273815</v>
       </c>
     </row>
     <row r="29">
@@ -1586,10 +1586,10 @@
         <v>3.4311285649428984</v>
       </c>
       <c r="O29" s="0">
-        <v>1.0813600000000001</v>
+        <v>65.799865891336751</v>
       </c>
       <c r="P29" s="0">
-        <v>0.48527515132024723</v>
+        <v>28.941686015155629</v>
       </c>
     </row>
     <row r="30">
@@ -1636,10 +1636,10 @@
         <v>5.1148289177718409</v>
       </c>
       <c r="O30" s="0">
-        <v>6.4881600000000006</v>
+        <v>385.79834114126686</v>
       </c>
       <c r="P30" s="0">
-        <v>2.2868200348567487</v>
+        <v>138.22841683717024</v>
       </c>
     </row>
     <row r="31">
@@ -1686,10 +1686,10 @@
         <v>2.8343501640805306</v>
       </c>
       <c r="O31" s="0">
-        <v>3.4758000000000004</v>
+        <v>204.02210154321506</v>
       </c>
       <c r="P31" s="0">
-        <v>0.77239999999999998</v>
+        <v>40.748089529932031</v>
       </c>
     </row>
     <row r="32">
@@ -1736,10 +1736,10 @@
         <v>28.476588056120246</v>
       </c>
       <c r="O32" s="0">
-        <v>15.679720000000003</v>
+        <v>913.77346131005288</v>
       </c>
       <c r="P32" s="0">
-        <v>5.3013912187860868</v>
+        <v>304.50916542082626</v>
       </c>
     </row>
     <row r="33">
@@ -1786,10 +1786,10 @@
         <v>2.8775123714464219</v>
       </c>
       <c r="O33" s="0">
-        <v>19.32931</v>
+        <v>1114.1799491819634</v>
       </c>
       <c r="P33" s="0">
-        <v>4.3078037853141202</v>
+        <v>239.91631804323137</v>
       </c>
     </row>
     <row r="34">
@@ -1836,10 +1836,10 @@
         <v>4.6672863578783659</v>
       </c>
       <c r="O34" s="0">
-        <v>25.952639999999995</v>
+        <v>1526.1895540730156</v>
       </c>
       <c r="P34" s="0">
-        <v>5.939282229046424</v>
+        <v>337.13181432097474</v>
       </c>
     </row>
     <row r="35">
@@ -1886,10 +1886,10 @@
         <v>1.9348501767623332</v>
       </c>
       <c r="O35" s="0">
-        <v>37.982770000000002</v>
+        <v>2180.3988014967167</v>
       </c>
       <c r="P35" s="0">
-        <v>16.254719401543046</v>
+        <v>894.3400661644464</v>
       </c>
     </row>
     <row r="36">
@@ -1936,10 +1936,10 @@
         <v>2.6157457526139756</v>
       </c>
       <c r="O36" s="0">
-        <v>37.577260000000003</v>
+        <v>2158.1985583312608</v>
       </c>
       <c r="P36" s="0">
-        <v>11.985073333333332</v>
+        <v>658.03523330508551</v>
       </c>
     </row>
     <row r="37">
@@ -1986,10 +1986,10 @@
         <v>15.314825049134338</v>
       </c>
       <c r="O37" s="0">
-        <v>37.171749999999996</v>
+        <v>2138.3516309255801</v>
       </c>
       <c r="P37" s="0">
-        <v>9.0299000810794006</v>
+        <v>489.40000604564307</v>
       </c>
     </row>
     <row r="38">
@@ -2036,10 +2036,10 @@
         <v>2.2845911884705505</v>
       </c>
       <c r="O38" s="0">
-        <v>41.226850000000006</v>
+        <v>2228.3962112146328</v>
       </c>
       <c r="P38" s="0">
-        <v>9.7623355425641414</v>
+        <v>506.71802636398144</v>
       </c>
     </row>
     <row r="39">
@@ -2086,10 +2086,10 @@
         <v>1.7310022236790736</v>
       </c>
       <c r="O39" s="0">
-        <v>33.599400000000003</v>
+        <v>1778.8293491736713</v>
       </c>
       <c r="P39" s="0">
-        <v>11.245208522447831</v>
+        <v>561.32813468278528</v>
       </c>
     </row>
     <row r="40">
@@ -2136,10 +2136,10 @@
         <v>0.72249172683404306</v>
       </c>
       <c r="O40" s="0">
-        <v>32.170459999999999</v>
+        <v>1718.9336679522955</v>
       </c>
       <c r="P40" s="0">
-        <v>7.8372701086142094</v>
+        <v>397.58916984157867</v>
       </c>
     </row>
     <row r="41">
@@ -2186,10 +2186,10 @@
         <v>1.616501990299454</v>
       </c>
       <c r="O41" s="0">
-        <v>47.3095</v>
+        <v>2551.7751498423527</v>
       </c>
       <c r="P41" s="0">
-        <v>10.925661024090639</v>
+        <v>559.41546036939576</v>
       </c>
     </row>
     <row r="42">
@@ -2236,10 +2236,10 @@
         <v>2.1207014580284826</v>
       </c>
       <c r="O42" s="0">
-        <v>48.120520000000006</v>
+        <v>2657.4939003195691</v>
       </c>
       <c r="P42" s="0">
-        <v>12.120494576082464</v>
+        <v>678.62124970744344</v>
       </c>
     </row>
     <row r="43">
@@ -2836,10 +2836,10 @@
         <v>24.557262885115886</v>
       </c>
       <c r="O54" s="0">
-        <v>41.767530000000008</v>
+        <v>1568.3319974881877</v>
       </c>
       <c r="P54" s="0">
-        <v>10.737203139355653</v>
+        <v>459.2497981802731</v>
       </c>
     </row>
     <row r="55">
@@ -2886,10 +2886,10 @@
         <v>28.490588640113778</v>
       </c>
       <c r="O55" s="0">
-        <v>45.822630000000004</v>
+        <v>1794.5064494284131</v>
       </c>
       <c r="P55" s="0">
-        <v>18.71284245595373</v>
+        <v>833.34057502130474</v>
       </c>
     </row>
     <row r="56">
@@ -2936,10 +2936,10 @@
         <v>10.982946108354582</v>
       </c>
       <c r="O56" s="0">
-        <v>48.526030000000006</v>
+        <v>1924.1407394899913</v>
       </c>
       <c r="P56" s="0">
-        <v>18.570180461380374</v>
+        <v>937.28132389492339</v>
       </c>
     </row>
     <row r="57">
@@ -2986,10 +2986,10 @@
         <v>36.978218020443229</v>
       </c>
       <c r="O57" s="0">
-        <v>16.896250000000002</v>
+        <v>487.37926932367156</v>
       </c>
       <c r="P57" s="0">
-        <v>1.951010897159043</v>
+        <v>56.515743989173771</v>
       </c>
     </row>
     <row r="58">
@@ -3036,10 +3036,10 @@
         <v>22.00134716455177</v>
       </c>
       <c r="O58" s="0">
-        <v>36.901410000000013</v>
+        <v>1325.2577192843924</v>
       </c>
       <c r="P58" s="0">
-        <v>10.528326810556262</v>
+        <v>436.37342576577629</v>
       </c>
     </row>
     <row r="59">
@@ -3086,10 +3086,10 @@
         <v>31.823195694411396</v>
       </c>
       <c r="O59" s="0">
-        <v>30.683590000000002</v>
+        <v>990.69535128031532</v>
       </c>
       <c r="P59" s="0">
-        <v>7.5287789021482991</v>
+        <v>235.43650583171947</v>
       </c>
     </row>
     <row r="60">
@@ -3136,10 +3136,10 @@
         <v>14.715992006399892</v>
       </c>
       <c r="O60" s="0">
-        <v>32.981480000000005</v>
+        <v>1075.3275426669525</v>
       </c>
       <c r="P60" s="0">
-        <v>6.2633628708155733</v>
+        <v>204.62343609831993</v>
       </c>
     </row>
     <row r="61">
@@ -3186,10 +3186,10 @@
         <v>18.397238244142269</v>
       </c>
       <c r="O61" s="0">
-        <v>33.116650000000007</v>
+        <v>1102.8672143018716</v>
       </c>
       <c r="P61" s="0">
-        <v>7.3685215872091101</v>
+        <v>250.84447249522464</v>
       </c>
     </row>
     <row r="62">
@@ -3236,10 +3236,10 @@
         <v>27.722394286489049</v>
       </c>
       <c r="O62" s="0">
-        <v>31.764949999999999</v>
+        <v>1054.4674753130462</v>
       </c>
       <c r="P62" s="0">
-        <v>5.9476506667432245</v>
+        <v>194.0020198432571</v>
       </c>
     </row>
     <row r="63">
@@ -3286,10 +3286,10 @@
         <v>10.902113150281274</v>
       </c>
       <c r="O63" s="0">
-        <v>33.251820000000002</v>
+        <v>1095.5945688059478</v>
       </c>
       <c r="P63" s="0">
-        <v>6.1587700392529685</v>
+        <v>214.80171631264878</v>
       </c>
     </row>
     <row r="64">
@@ -3336,10 +3336,10 @@
         <v>18.312496308952856</v>
       </c>
       <c r="O64" s="0">
-        <v>53.392150000000001</v>
+        <v>1605.1071519143266</v>
       </c>
       <c r="P64" s="0">
-        <v>12.864842178815618</v>
+        <v>333.20815766953075</v>
       </c>
     </row>
     <row r="65">
@@ -3386,10 +3386,10 @@
         <v>24.904307445586216</v>
       </c>
       <c r="O65" s="0">
-        <v>23.944399999999998</v>
+        <v>782.41116158378384</v>
       </c>
       <c r="P65" s="0">
-        <v>5.1489310259509207</v>
+        <v>147.33079425288483</v>
       </c>
     </row>
     <row r="66">
@@ -3436,10 +3436,10 @@
         <v>18.10987644925984</v>
       </c>
       <c r="O66" s="0">
-        <v>42.713720000000002</v>
+        <v>1235.51286702078</v>
       </c>
       <c r="P66" s="0">
-        <v>13.569763507910602</v>
+        <v>367.89252947131507</v>
       </c>
     </row>
     <row r="67">
@@ -3486,10 +3486,10 @@
         <v>15.32035297196961</v>
       </c>
       <c r="O67" s="0">
-        <v>32.035290000000003</v>
+        <v>902.20216683175363</v>
       </c>
       <c r="P67" s="0">
-        <v>10.599431202007963</v>
+        <v>278.44982709496821</v>
       </c>
     </row>
     <row r="68">
@@ -3536,10 +3536,10 @@
         <v>9.2095378695123298</v>
       </c>
       <c r="O68" s="0">
-        <v>45.687460000000002</v>
+        <v>1378.935793313713</v>
       </c>
       <c r="P68" s="0">
-        <v>12.821452243132732</v>
+        <v>353.16146787877869</v>
       </c>
     </row>
     <row r="69">
@@ -4136,10 +4136,10 @@
         <v>24.850996623242391</v>
       </c>
       <c r="O80" s="0">
-        <v>3.2440800000000003</v>
+        <v>145.15399385742455</v>
       </c>
       <c r="P80" s="0">
-        <v>1.4133724065982516</v>
+        <v>64.099312183109319</v>
       </c>
     </row>
     <row r="81">
@@ -4186,10 +4186,10 @@
         <v>17.515877520132118</v>
       </c>
       <c r="O81" s="0">
-        <v>4.0551000000000013</v>
+        <v>191.24440876161913</v>
       </c>
       <c r="P81" s="0">
-        <v>2.4842531597600472</v>
+        <v>119.42867895551011</v>
       </c>
     </row>
     <row r="82">
@@ -4236,10 +4236,10 @@
         <v>12.862307040665511</v>
       </c>
       <c r="O82" s="0">
-        <v>3.5144199999999999</v>
+        <v>155.69102944150038</v>
       </c>
       <c r="P82" s="0">
-        <v>0.88292674275200589</v>
+        <v>40.323196221567471</v>
       </c>
     </row>
     <row r="83">
@@ -4286,10 +4286,10 @@
         <v>8.8796388496713288</v>
       </c>
       <c r="O83" s="0">
-        <v>7.1447000000000012</v>
+        <v>330.32900685237746</v>
       </c>
       <c r="P83" s="0">
-        <v>3.1866375889538077</v>
+        <v>147.15509549674047</v>
       </c>
     </row>
     <row r="84">
@@ -4336,10 +4336,10 @@
         <v>4.8983054434138262</v>
       </c>
       <c r="O84" s="0">
-        <v>12.570810000000002</v>
+        <v>553.18523388621361</v>
       </c>
       <c r="P84" s="0">
-        <v>4.0252023213594841</v>
+        <v>171.67898060644472</v>
       </c>
     </row>
     <row r="85">
@@ -4386,10 +4386,10 @@
         <v>48.873269174497906</v>
       </c>
       <c r="O85" s="0">
-        <v>17.572099999999999</v>
+        <v>773.53062596702864</v>
       </c>
       <c r="P85" s="0">
-        <v>5.0856184392417374</v>
+        <v>224.85153185499897</v>
       </c>
     </row>
     <row r="86">
@@ -4436,10 +4436,10 @@
         <v>32.421242867937146</v>
       </c>
       <c r="O86" s="0">
-        <v>18.112779999999997</v>
+        <v>791.8141593991578</v>
       </c>
       <c r="P86" s="0">
-        <v>5.4000372706491575</v>
+        <v>239.08678493895118</v>
       </c>
     </row>
     <row r="87">
@@ -4486,10 +4486,10 @@
         <v>16.539959545368056</v>
       </c>
       <c r="O87" s="0">
-        <v>19.194140000000001</v>
+        <v>833.42070726168208</v>
       </c>
       <c r="P87" s="0">
-        <v>5.6448649232377566</v>
+        <v>246.72777098168928</v>
       </c>
     </row>
     <row r="88">
@@ -4536,10 +4536,10 @@
         <v>5.0642373250302484</v>
       </c>
       <c r="O88" s="0">
-        <v>21.627200000000002</v>
+        <v>949.51606851535087</v>
       </c>
       <c r="P88" s="0">
-        <v>6.8183109003949403</v>
+        <v>309.00998992584141</v>
       </c>
     </row>
     <row r="89">
@@ -4586,10 +4586,10 @@
         <v>4.6785104276426228</v>
       </c>
       <c r="O89" s="0">
-        <v>24.06026</v>
+        <v>1049.7105752846203</v>
       </c>
       <c r="P89" s="0">
-        <v>7.6749902132576038</v>
+        <v>338.40303752922205</v>
       </c>
     </row>
     <row r="90">
@@ -4636,10 +4636,10 @@
         <v>11.062517437034119</v>
       </c>
       <c r="O90" s="0">
-        <v>21.086520000000004</v>
+        <v>851.55719187298712</v>
       </c>
       <c r="P90" s="0">
-        <v>6.3630478893687412</v>
+        <v>257.6966510767046</v>
       </c>
     </row>
     <row r="91">
@@ -4686,10 +4686,10 @@
         <v>11.926821310865888</v>
       </c>
       <c r="O91" s="0">
-        <v>12.744600000000002</v>
+        <v>520.34415625000008</v>
       </c>
       <c r="P91" s="0">
-        <v>6.072680321736029</v>
+        <v>246.91378074268985</v>
       </c>
     </row>
     <row r="92">
@@ -4736,10 +4736,10 @@
         <v>25.520989863142898</v>
       </c>
       <c r="O92" s="0">
-        <v>31.359439999999999</v>
+        <v>1248.7215054901369</v>
       </c>
       <c r="P92" s="0">
-        <v>12.97569419787285</v>
+        <v>499.71782656036186</v>
       </c>
     </row>
     <row r="93">
@@ -4786,10 +4786,10 @@
         <v>4.1238838760598586</v>
       </c>
       <c r="O93" s="0">
-        <v>38.928960000000004</v>
+        <v>1543.0769206891837</v>
       </c>
       <c r="P93" s="0">
-        <v>17.764901485414683</v>
+        <v>677.73470124161622</v>
       </c>
     </row>
     <row r="94">
@@ -4836,10 +4836,10 @@
         <v>17.372845829865931</v>
       </c>
       <c r="O94" s="0">
-        <v>26.493320000000004</v>
+        <v>1082.417938893059</v>
       </c>
       <c r="P94" s="0">
-        <v>8.4298121451034334</v>
+        <v>352.35404399770698</v>
       </c>
     </row>
     <row r="95">

--- a/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_GroupStats.xlsx
+++ b/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1792" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2016" uniqueCount="20">
   <si>
     <t>Sex</t>
   </si>
